--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_11.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_11.xlsx
@@ -483,35 +483,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.2946428571428572</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:7/A#', 'G#'], ['A#/F', 'F:7', 'A#']]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(40.4, 43.34), (271.22, 275.78)]</t>
+          <t>[(7.525011, 12.93526)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(31.24, 36.6), (0.24, 8.18)]</t>
+          <t>[(55.58, 62.32)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -520,38 +520,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.06266149870801033</v>
+        <v>0.05796064400715564</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:min', 'Eb:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(6.96, 9.2)]</t>
+          <t>[(41.38, 43.34)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[(0.36, 5.6)]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
@@ -561,35 +565,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>isophonics_170</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.106312292358804</v>
+        <v>0.07802964254577158</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A/3', 'D/7']]</t>
+          <t>[['C:7', 'C:7', 'F:7', 'F:7'], ['Bb', 'Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['E:7/5', 'E:7', 'A:7', 'A:7/5'], ['D', 'D/5', 'D', 'D:maj(*1)/#1']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(59.78, 64.294)]</t>
+          <t>[(26.8, 30.62), (13.39, 15.07)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.74, 21.5)]</t>
+          <t>[(41.627674, 46.153479), (37.077029, 40.734172)]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -598,244 +602,232 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2077922077922078</v>
+        <v>0.2660098522167488</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['Db:maj', 'Ab/3', 'Eb:7']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.88, 11.46), (16.24, 18.88)]</t>
+          <t>[(13.159, 16.555)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(64.58, 73.88), (64.08, 70.34)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[(66.06, 67.74)]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5050505050505051</v>
+        <v>0.3365853658536585</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[(62.53, 66.23)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(7.9, 20.52)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[(138.02, 142.34)]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>isophonics_263</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2003577817531306</v>
+        <v>0.1414473684210526</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>[['B', 'E', 'E']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['E', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(36.16, 41.2)]</t>
+          <t>[(2.676666, 13.717755)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(92.04, 104.4)]</t>
+          <t>[(32.874217, 50.277573)]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2687747035573123</v>
+        <v>0.2528735632183908</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.02, 15.1)]</t>
+          <t>[(12.28, 20.14)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(17.9, 20.7)]</t>
+          <t>[(22.32, 49.78)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5397727272727273</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[(19.435, 32.669)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(27.0, 49.86)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>[(118.4, 121.72)]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_208</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>isophonics_220</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2371794871794872</v>
+        <v>0.4247104247104247</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E', 'B']]</t>
+          <t>[['Eb', 'Eb', 'Eb', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:maj', 'B:maj', 'F#:maj']]</t>
+          <t>[['D', 'D', 'D/7', 'D/6', 'D/5']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(148.857891, 156.114126)]</t>
+          <t>[(176.81, 183.24)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(10.2, 12.94)]</t>
+          <t>[(0.325509, 4.348503)]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -844,81 +836,77 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>jaah_59</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>jaah_9</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.1146055437100213</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['F:7', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min', 'A#:maj'], ['D#:maj', 'G#:maj', 'D#:maj'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['C:7', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(33.84, 36.48), (69.36, 73.2), (8.54, 14.08)]</t>
+          <t>[(6.37, 8.66)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(13.86, 18.62), (127.6, 132.4), (0.78, 5.98)]</t>
+          <t>[(51.69, 55.72)]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.125</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A', 'D', 'G'], ['G', 'D', 'G'], ['A:min', 'G', 'D/3']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'E:min']]</t>
+          <t>[['G:maj/B', 'C:maj/E', 'F:maj'], ['F:maj', 'C:maj', 'F:maj'], ['G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(28.8, 36.86)]</t>
+          <t>[(62.748299, 67.543219), (1.014823, 6.126439), (17.573877, 21.2078)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.506, 8.175)]</t>
+          <t>[(211.7, 214.6), (0.78, 23.84), (93.32, 98.98)]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -926,131 +914,131 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>isophonics_49</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1778846153846154</v>
+        <v>0.1215686274509804</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['E/5', 'E/#4', 'E/4']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'B']]</t>
+          <t>[['G', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(32.874217, 50.277573)]</t>
+          <t>[(0.440395, 4.837819)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(26.162131, 40.546893)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
+          <t>[(20.940758, 23.936132)]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_116</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_46</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.08755760368663594</v>
+        <v>0.07728085867620751</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:7', 'D:7', 'C:7', 'G:7']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'F:7', 'Eb:7', 'Bb:7']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(18.895804, 28.090907)]</t>
+          <t>[(10.94, 16.32)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(13.68, 20.95)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[(105.28, 122.26)]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.1715686274509804</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(116.66, 121.42)]</t>
+          <t>[(66.52, 70.14)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[(6.415079, 14.054444)]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1058,22 +1046,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'D:maj'], ['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'A'], ['C', 'F', 'C']]</t>
+          <t>[['B', 'E/5', 'B']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(45.298, 63.135), (11.384, 18.318)]</t>
+          <t>[(80.42, 84.64)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(27.510408, 38.772086), (16.17907, 21.844739)]</t>
+          <t>[(58.625147, 64.604285)]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1082,40 +1070,40 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2708333333333333</v>
+        <v>0.07146401985111663</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj', 'G:maj', 'E:min'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>[['A', 'A', 'F#:min'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(62.1, 71.78)]</t>
+          <t>[(8.84, 15.86), (18.12, 24.54)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(0.48, 9.64)]</t>
+          <t>[(22.761927, 31.759659), (39.724104, 43.706326)]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_11.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2946428571428572</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1199186991869919</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['F', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.525011, 12.93526)]</t>
+          <t>[['Bb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(55.58, 62.32)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:29.470000', '0:00:32.220000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:48.170328', '0:00:55.589104')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2537593984962406</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[('0:00:04.155032', '0:00:07.525011')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07802964254577158</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:7', 'C:7', 'F:7', 'F:7'], ['Bb', 'Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5052631578947369</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7/5', 'E:7', 'A:7', 'A:7/5'], ['D', 'D/5', 'D', 'D:maj(*1)/#1']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(26.8, 30.62), (13.39, 15.07)]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(41.627674, 46.153479), (37.077029, 40.734172)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:10.634761', '0:00:19.597664')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2660098522167488</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Db:maj', 'Ab/3', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.150268336314848</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7']]</t>
+          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.159, 16.555)]</t>
+          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(66.06, 67.74)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:39.020000', '0:00:43.960000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:36.600000', '0:00:39')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3365853658536585</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1169415292353823</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(62.53, 66.23)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(138.02, 142.34)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:19.480000', '0:00:25.860000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:04.860000', '0:00:07.560000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1414473684210526</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'E']]</t>
-        </is>
+          <t>isophonics_296</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1487148102815177</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['C:maj', 'D:maj', 'G:maj', 'C:maj', 'G/3', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(2.676666, 13.717755)]</t>
+          <t>[['C', 'D', 'G', 'C', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(32.874217, 50.277573)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
+          <t>[('0:00:36.061000', '0:00:43.498000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:17.788231', '0:00:25.532085')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.28, 20.14)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(22.32, 49.78)]</t>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1882352941176471</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(19.435, 32.669)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(118.4, 121.72)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_220</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4247104247104247</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'D/7', 'D/6', 'D/5']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(176.81, 183.24)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.325509, 4.348503)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:34.060000', '0:01:53.500000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:30.800000', '0:00:45.300000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_9</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1146055437100213</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(6.37, 8.66)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(51.69, 55.72)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G'], ['G', 'D', 'G'], ['A:min', 'G', 'D/3']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj'], ['F:maj', 'C:maj', 'F:maj'], ['G:min/A#', 'F:maj/C', 'C:maj']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(62.748299, 67.543219), (1.014823, 6.126439), (17.573877, 21.2078)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(211.7, 214.6), (0.78, 23.84), (93.32, 98.98)]</t>
+          <t>[('0:00:49.140000', '0:01:02.460000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:00:00.220000', '0:00:08.880000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1215686274509804</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E/5', 'E/#4', 'E/4']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'G']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.440395, 4.837819)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(20.940758, 23.936132)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(10.94, 16.32)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(105.28, 122.26)]</t>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1715686274509804</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(66.52, 70.14)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(6.415079, 14.054444)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(58.625147, 64.604285)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:13.320000', '0:00:43.780000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'F#:min'], ['A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(8.84, 15.86), (18.12, 24.54)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(22.761927, 31.759659), (39.724104, 43.706326)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
